--- a/src/NihongoKotoba/Data.xlsx
+++ b/src/NihongoKotoba/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhatp\source\repos\NhatPG\nihongokotoba\src\NihongoKotoba\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68C83F-4F91-4B18-BEAB-35951CDF493A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9679A57-D08E-452E-98B1-6F51E244AFCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="4120" windowWidth="14400" windowHeight="6390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="170">
   <si>
     <t>ぬぎます</t>
   </si>
@@ -372,6 +372,171 @@
   </si>
   <si>
     <t>「ありがろう」 trong tiếng Anh là gì?</t>
+  </si>
+  <si>
+    <t>そして</t>
+  </si>
+  <si>
+    <t>Và</t>
+  </si>
+  <si>
+    <t>ベトナムの食べ物はおいしいです。そして、安いです。</t>
+  </si>
+  <si>
+    <t>Đồ ăn Việt Nam ngon. Và rẻ nữa.</t>
+  </si>
+  <si>
+    <t>Rất</t>
+  </si>
+  <si>
+    <t>だいたい</t>
+  </si>
+  <si>
+    <t>Đại khái</t>
+  </si>
+  <si>
+    <t>日本語がだいたい分かります。</t>
+  </si>
+  <si>
+    <t>Tôi hiểu đại khái tiếng Nhật thôi.</t>
+  </si>
+  <si>
+    <t>どうして</t>
+  </si>
+  <si>
+    <t>どうして宿題をしませんか。</t>
+  </si>
+  <si>
+    <t>Vì sao bạn không làm bài tập.</t>
+  </si>
+  <si>
+    <t>Vì sao, Tại sao</t>
+  </si>
+  <si>
+    <t>どのぐらい</t>
+  </si>
+  <si>
+    <t>Bao nhiêu lâu</t>
+  </si>
+  <si>
+    <t>どのぐらい日本語を勉強しましたか。</t>
+  </si>
+  <si>
+    <t>Bạn đã học tiếng Nhật được bao nhiêu lâu.</t>
+  </si>
+  <si>
+    <t>だけ</t>
+  </si>
+  <si>
+    <t>Chỉ</t>
+  </si>
+  <si>
+    <t>休みは日曜日だけです。</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ chỉ có Chủ nhật thôi.</t>
+  </si>
+  <si>
+    <t>「N1」は「N2」より「Adj」です。</t>
+  </si>
+  <si>
+    <t>「N1」「Adj」 hơn「N2」</t>
+  </si>
+  <si>
+    <t>田中さんは私より高いです。</t>
+  </si>
+  <si>
+    <t>Anh Tanaka cao hơn tôi.</t>
+  </si>
+  <si>
+    <t>「N1」と「N2」とどちらが「Adj」ですか。</t>
+  </si>
+  <si>
+    <t>「N1」và「N2」cái nào「Adj」hơn?</t>
+  </si>
+  <si>
+    <t>「N1」(「N2」)のほうが「Adj」です。</t>
+  </si>
+  <si>
+    <t>「N1」(「N2」)「Adj」hơn。</t>
+  </si>
+  <si>
+    <t>春と秋とどちらが好きですか。</t>
+  </si>
+  <si>
+    <t>Mùa xuân và mua thu bạn thích mùa nào hơn?</t>
+  </si>
+  <si>
+    <t>春のほうが好きです。</t>
+  </si>
+  <si>
+    <t>Tôi thích mùa xuân hơn.</t>
+  </si>
+  <si>
+    <t>「N1」の中で「N2」が一番「Adj」です。</t>
+  </si>
+  <si>
+    <t>Trong phạm vi「N1」thì「N2」là「Adj」nhất。</t>
+  </si>
+  <si>
+    <t>果物の中でリンゴが一番好きです。</t>
+  </si>
+  <si>
+    <t>Trong các loại quả, tôi thích nhất là táo.</t>
+  </si>
+  <si>
+    <t>私は「N」がほしいです。</t>
+  </si>
+  <si>
+    <t>Tôi muốn có 「N」</t>
+  </si>
+  <si>
+    <t>私は友達がほしいです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tôi muốn có bạn bè </t>
+  </si>
+  <si>
+    <t>「Vて」もいいです。</t>
+  </si>
+  <si>
+    <t>Có thể làm, được phép làm.</t>
+  </si>
+  <si>
+    <t>この部屋でタバコを吸ってもいいです。</t>
+  </si>
+  <si>
+    <t>Được phép hút thuốc ở phòng này.</t>
+  </si>
+  <si>
+    <t>返します</t>
+  </si>
+  <si>
+    <t>かえします</t>
+  </si>
+  <si>
+    <t>Trả lại</t>
+  </si>
+  <si>
+    <t>本を返します</t>
+  </si>
+  <si>
+    <t>Trả lại cuốn sách</t>
+  </si>
+  <si>
+    <t>押します</t>
+  </si>
+  <si>
+    <t>おします</t>
+  </si>
+  <si>
+    <t>Bấm, ấn</t>
+  </si>
+  <si>
+    <t>このボタンを押さないでくささい。</t>
+  </si>
+  <si>
+    <t>Không bấm vào nút này.</t>
   </si>
 </sst>
 </file>
@@ -693,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -705,7 +870,7 @@
     <col min="2" max="2" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6328125" customWidth="1"/>
+    <col min="5" max="5" width="51.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1107,6 +1272,124 @@
       </c>
       <c r="D34" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" t="s">
+        <v>125</v>
+      </c>
+      <c r="F38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1129,15 +1412,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33.36328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1170,6 +1453,90 @@
         <v>114</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
